--- a/data/camerasites_2021_2022.xlsx
+++ b/data/camerasites_2021_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amy/Documents/Berkeley Classes/Brashares Lab/projects/snow-leopard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FF8DAF-F4DC-7A48-BB55-5798347E0E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D40B714-51CD-1D4B-BC29-2ACF4EECDD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24920" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
   <si>
     <t>Ibex</t>
   </si>
@@ -298,9 +298,6 @@
     <t>SLC 109-Krabathang-Barlmai lataraq</t>
   </si>
   <si>
-    <t>SLC 109-Krabathang-Charchik Thang</t>
-  </si>
-  <si>
     <t>SLC 117-Krabathang-Doaqbe Longma</t>
   </si>
   <si>
@@ -401,6 +398,12 @@
   </si>
   <si>
     <t>n_days_orig</t>
+  </si>
+  <si>
+    <t>SLC 109-Krabatahng-Charchik Thang</t>
+  </si>
+  <si>
+    <t>13/01/2022</t>
   </si>
 </sst>
 </file>
@@ -823,12 +826,12 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.83203125" style="1" customWidth="1"/>
@@ -848,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -884,13 +887,13 @@
         <v>6</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>88</v>
@@ -905,7 +908,7 @@
         <v>77</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -973,7 +976,7 @@
     </row>
     <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1036,7 +1039,7 @@
     </row>
     <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1098,7 +1101,7 @@
     </row>
     <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1161,7 +1164,7 @@
     </row>
     <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1287,7 +1290,7 @@
     </row>
     <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1350,7 +1353,7 @@
     </row>
     <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -1475,7 +1478,7 @@
     </row>
     <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -1601,7 +1604,7 @@
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -1756,7 +1759,9 @@
       <c r="P15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="R15" s="11">
         <v>44267</v>
       </c>
@@ -1765,7 +1770,7 @@
     </row>
     <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -1828,7 +1833,7 @@
     </row>
     <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -1891,7 +1896,7 @@
     </row>
     <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
@@ -1954,7 +1959,7 @@
     </row>
     <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -2017,7 +2022,7 @@
     </row>
     <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -2062,7 +2067,7 @@
     </row>
     <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
@@ -2125,7 +2130,7 @@
     </row>
     <row r="22" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -2188,7 +2193,7 @@
     </row>
     <row r="23" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -2251,7 +2256,7 @@
     </row>
     <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -2314,7 +2319,7 @@
     </row>
     <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -2377,7 +2382,7 @@
     </row>
     <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
@@ -2440,7 +2445,7 @@
     </row>
     <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -2503,7 +2508,7 @@
     </row>
     <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -2566,7 +2571,7 @@
     </row>
     <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
@@ -2629,7 +2634,7 @@
     </row>
     <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
@@ -2692,7 +2697,7 @@
     </row>
     <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>3</v>
@@ -2755,7 +2760,7 @@
     </row>
     <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>4</v>
